--- a/doc/02_API_view.xlsx
+++ b/doc/02_API_view.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +689,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="17.05"/>
@@ -751,6 +755,9 @@
       <c r="F4" t="s">
         <v>50</v>
       </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="4" t="s">
@@ -763,6 +770,9 @@
       <c r="F5" t="s">
         <v>51</v>
       </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
@@ -774,6 +784,9 @@
       <c r="D6" s="5"/>
       <c r="F6" t="s">
         <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/doc/02_API_view.xlsx
+++ b/doc/02_API_view.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -689,7 +693,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="17.05"/>
@@ -800,6 +804,9 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="3" t="s">
@@ -812,6 +819,9 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
@@ -824,6 +834,9 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="2" t="s">
@@ -836,6 +849,9 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="2" t="s">
@@ -847,6 +863,9 @@
       <c r="D11" s="5"/>
       <c r="F11" t="s">
         <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
